--- a/abaqus_files/umat_models/UMAT_properties.xlsx
+++ b/abaqus_files/umat_models/UMAT_properties.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="63">
   <si>
     <t>UMAT Properties</t>
   </si>
@@ -207,6 +207,12 @@
   </si>
   <si>
     <t>Physical Meaning</t>
+  </si>
+  <si>
+    <t>TiNiCu-M+ (SMA+)</t>
+  </si>
+  <si>
+    <t>TiNiCu-M- (SMA-)</t>
   </si>
 </sst>
 </file>
@@ -534,17 +540,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="141.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -586,203 +592,195 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="2"/>
+      <c r="B6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
         <v>2</v>
       </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
       <c r="C8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>3</v>
-      </c>
-      <c r="B9" s="1">
-        <v>1E-8</v>
-      </c>
-      <c r="C9" s="1">
-        <v>1E-8</v>
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>4</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1E-8</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1E-8</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B12">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>0.5</v>
-      </c>
-      <c r="D12" t="s">
-        <v>16</v>
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B15">
-        <v>31628000000</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>31628000000</v>
-      </c>
-      <c r="D15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" t="s">
-        <v>20</v>
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B16">
-        <v>44420000000</v>
+        <v>31628000000</v>
       </c>
       <c r="C16">
-        <v>44420000000</v>
+        <v>31628000000</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B17">
-        <v>0.33</v>
+        <v>44420000000</v>
       </c>
       <c r="C17">
-        <v>0.33</v>
+        <v>44420000000</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B18">
         <v>0.33</v>
@@ -791,32 +789,32 @@
         <v>0.33</v>
       </c>
       <c r="D18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="D19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -825,15 +823,15 @@
         <v>0</v>
       </c>
       <c r="D20" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E20" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -841,13 +839,16 @@
       <c r="C21">
         <v>0</v>
       </c>
-      <c r="D21">
-        <v>0</v>
+      <c r="D21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -861,140 +862,140 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B23">
-        <v>327</v>
+        <v>0</v>
       </c>
       <c r="C23">
-        <v>327</v>
-      </c>
-      <c r="D23" t="s">
-        <v>31</v>
-      </c>
-      <c r="E23" t="s">
-        <v>32</v>
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B24">
-        <v>302.14999999999998</v>
+        <v>327</v>
       </c>
       <c r="C24">
-        <v>302.14999999999998</v>
+        <v>327</v>
       </c>
       <c r="D24" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E24" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B25">
-        <v>342</v>
+        <v>302.14999999999998</v>
       </c>
       <c r="C25">
-        <v>342</v>
+        <v>302.14999999999998</v>
       </c>
       <c r="D25" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E25" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B26">
-        <v>367</v>
+        <v>342</v>
       </c>
       <c r="C26">
-        <v>367</v>
+        <v>342</v>
       </c>
       <c r="D26" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E26" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B27">
-        <v>8623000</v>
+        <v>367</v>
       </c>
       <c r="C27">
-        <v>8623000</v>
+        <v>367</v>
       </c>
       <c r="D27" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E27" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B28">
-        <v>9522000</v>
+        <v>8623000</v>
       </c>
       <c r="C28">
-        <v>9522000</v>
+        <v>8623000</v>
       </c>
       <c r="D28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E28" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B29">
-        <v>300000000</v>
+        <v>9522000</v>
       </c>
       <c r="C29">
-        <v>300000000</v>
+        <v>9522000</v>
       </c>
       <c r="D29" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>300000000</v>
       </c>
       <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
+        <v>300000000</v>
+      </c>
+      <c r="D30" t="s">
+        <v>43</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -1002,75 +1003,75 @@
       <c r="C31">
         <v>0</v>
       </c>
-      <c r="D31" t="s">
-        <v>45</v>
-      </c>
-      <c r="E31" t="s">
-        <v>46</v>
+      <c r="D31">
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B32">
-        <v>4.0500000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="C32">
-        <v>4.0500000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="D32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>4.0500000000000001E-2</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>4.0500000000000001E-2</v>
       </c>
       <c r="D33" t="s">
-        <v>49</v>
+        <v>47</v>
+      </c>
+      <c r="E33" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B34">
-        <v>0.39100000000000001</v>
+        <v>0</v>
       </c>
       <c r="C34">
-        <v>0.39100000000000001</v>
+        <v>0</v>
       </c>
       <c r="D34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.39100000000000001</v>
       </c>
       <c r="C35">
-        <v>0</v>
-      </c>
-      <c r="D35">
-        <v>0</v>
+        <v>0.39100000000000001</v>
+      </c>
+      <c r="D35" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -1084,64 +1085,61 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C37">
-        <v>1</v>
-      </c>
-      <c r="D37" t="s">
-        <v>51</v>
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B38">
         <v>1</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>52</v>
-      </c>
-      <c r="E38" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B39">
-        <v>0.61799999999999999</v>
+        <v>1</v>
       </c>
       <c r="C39">
-        <v>0.61799999999999999</v>
+        <v>0</v>
       </c>
       <c r="D39" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E39" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B40">
-        <v>0.313</v>
+        <v>0.61799999999999999</v>
       </c>
       <c r="C40">
-        <v>0.313</v>
+        <v>0.61799999999999999</v>
       </c>
       <c r="D40" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E40" t="s">
         <v>55</v>
@@ -1149,16 +1147,16 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B41">
-        <v>0.75900000000000001</v>
+        <v>0.313</v>
       </c>
       <c r="C41">
-        <v>0.75900000000000001</v>
+        <v>0.313</v>
       </c>
       <c r="D41" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E41" t="s">
         <v>55</v>
@@ -1166,18 +1164,35 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
+        <v>35</v>
+      </c>
+      <c r="B42">
+        <v>0.75900000000000001</v>
+      </c>
+      <c r="C42">
+        <v>0.75900000000000001</v>
+      </c>
+      <c r="D42" t="s">
+        <v>57</v>
+      </c>
+      <c r="E42" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
         <v>36</v>
       </c>
-      <c r="B42">
+      <c r="B43">
         <v>0.35799999999999998</v>
       </c>
-      <c r="C42">
+      <c r="C43">
         <v>0.35799999999999998</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D43" t="s">
         <v>58</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E43" t="s">
         <v>55</v>
       </c>
     </row>
